--- a/Team-Data/2008-09/3-15-2008-09.xlsx
+++ b/Team-Data/2008-09/3-15-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
         <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.582</v>
+        <v>0.576</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K2" t="n">
         <v>0.458</v>
@@ -693,16 +760,16 @@
         <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O2" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P2" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q2" t="n">
         <v>0.734</v>
@@ -714,37 +781,37 @@
         <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U2" t="n">
         <v>20.5</v>
       </c>
       <c r="V2" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
         <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB2" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -762,10 +829,10 @@
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,10 +841,10 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
         <v>12</v>
@@ -786,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -798,19 +865,19 @@
         <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -851,82 +918,82 @@
         <v>66</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.742</v>
+        <v>0.758</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P3" t="n">
         <v>26.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
         <v>22.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -959,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
@@ -971,22 +1038,22 @@
         <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1150,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1165,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
         <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>0.439</v>
+        <v>0.448</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,76 +1297,76 @@
         <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
         <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
       <c r="R5" t="n">
         <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V5" t="n">
         <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
@@ -1311,28 +1378,28 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1344,13 +1411,13 @@
         <v>14</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -1397,22 +1464,22 @@
         <v>65</v>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
@@ -1421,19 +1488,19 @@
         <v>8.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
@@ -1442,37 +1509,37 @@
         <v>30.8</v>
       </c>
       <c r="T6" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1505,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1526,19 +1593,19 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -1576,55 +1643,55 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.597</v>
+        <v>0.606</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J7" t="n">
         <v>83</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P7" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="R7" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U7" t="n">
         <v>21.6</v>
@@ -1642,19 +1709,19 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB7" t="n">
         <v>101.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1681,10 +1748,10 @@
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1699,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1708,13 +1775,13 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1729,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1848,13 +1915,13 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>7</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>0.508</v>
+        <v>0.516</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1961,37 +2028,37 @@
         <v>79.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R9" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S9" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T9" t="n">
         <v>41.2</v>
       </c>
       <c r="U9" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V9" t="n">
         <v>12</v>
@@ -2006,28 +2073,28 @@
         <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>9</v>
@@ -2045,7 +2112,7 @@
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN9" t="n">
         <v>27</v>
@@ -2054,7 +2121,7 @@
         <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2087,13 +2154,13 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J10" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
         <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O10" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="P10" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R10" t="n">
         <v>11.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U10" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2194,22 +2261,22 @@
         <v>23.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.5</v>
+        <v>108.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.7</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2245,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2272,10 +2339,10 @@
         <v>3</v>
       </c>
       <c r="BB10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -2397,13 +2464,13 @@
         <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ11" t="n">
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2415,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2433,10 +2500,10 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2454,10 +2521,10 @@
         <v>14</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2553,52 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="n">
-        <v>0.412</v>
+        <v>0.418</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J12" t="n">
         <v>86.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
       </c>
       <c r="M12" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O12" t="n">
         <v>18.8</v>
       </c>
       <c r="P12" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q12" t="n">
         <v>0.8080000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
         <v>43.5</v>
@@ -2552,19 +2619,19 @@
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA12" t="n">
         <v>21.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>6</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>19</v>
@@ -2618,10 +2685,10 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW12" t="n">
         <v>22</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
         <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>0.242</v>
+        <v>0.231</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J13" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
         <v>6.4</v>
@@ -2698,7 +2765,7 @@
         <v>18.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
         <v>17.1</v>
@@ -2707,7 +2774,7 @@
         <v>23.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R13" t="n">
         <v>11.1</v>
@@ -2722,13 +2789,13 @@
         <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
         <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y13" t="n">
         <v>5.3</v>
@@ -2740,13 +2807,13 @@
         <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.6</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2770,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
@@ -2788,10 +2855,10 @@
         <v>27</v>
       </c>
       <c r="AR13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
@@ -2812,16 +2879,16 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB13" t="n">
         <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -2865,43 +2932,43 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J14" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
         <v>20.1</v>
       </c>
       <c r="P14" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
         <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
         <v>44.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
         <v>13.5</v>
@@ -2910,7 +2977,7 @@
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
@@ -2922,22 +2989,22 @@
         <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
@@ -2949,19 +3016,19 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
@@ -2988,19 +3055,19 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
         <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>0.262</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,7 +3117,7 @@
         <v>34.9</v>
       </c>
       <c r="J15" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.45</v>
@@ -3062,22 +3129,22 @@
         <v>13.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O15" t="n">
         <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
         <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T15" t="n">
         <v>39.1</v>
@@ -3086,10 +3153,10 @@
         <v>17.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.5</v>
@@ -3098,19 +3165,19 @@
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3143,7 +3210,7 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="n">
         <v>36</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
-        <v>0.545</v>
+        <v>0.554</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="J16" t="n">
-        <v>81.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
@@ -3244,7 +3311,7 @@
         <v>19.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O16" t="n">
         <v>17.4</v>
@@ -3253,7 +3320,7 @@
         <v>22.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
@@ -3262,7 +3329,7 @@
         <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U16" t="n">
         <v>20.2</v>
@@ -3286,13 +3353,13 @@
         <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3304,10 +3371,10 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -3319,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN16" t="n">
         <v>22</v>
@@ -3340,13 +3407,13 @@
         <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
@@ -3355,16 +3422,16 @@
         <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -3399,25 +3466,25 @@
         <v>68</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" t="n">
-        <v>0.456</v>
+        <v>0.441</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K17" t="n">
-        <v>0.445</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
@@ -3426,34 +3493,34 @@
         <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.785</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3462,16 +3529,16 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,22 +3547,22 @@
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,16 +3574,16 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS17" t="n">
         <v>26</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3549,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3710,13 +3777,13 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3725,7 +3792,7 @@
         <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.424</v>
+        <v>0.431</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3778,10 +3845,10 @@
         <v>35.8</v>
       </c>
       <c r="J19" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
@@ -3790,7 +3857,7 @@
         <v>20.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O19" t="n">
         <v>19.3</v>
@@ -3802,16 +3869,16 @@
         <v>0.783</v>
       </c>
       <c r="R19" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S19" t="n">
         <v>29.3</v>
       </c>
       <c r="T19" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U19" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V19" t="n">
         <v>13.2</v>
@@ -3823,7 +3890,7 @@
         <v>4.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
@@ -3832,19 +3899,19 @@
         <v>20.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC19" t="n">
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
@@ -3853,13 +3920,13 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>5</v>
@@ -3868,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
         <v>12</v>
@@ -3880,7 +3947,7 @@
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS19" t="n">
         <v>22</v>
@@ -3889,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV19" t="n">
         <v>10</v>
@@ -3907,10 +3974,10 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>8</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4062,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS20" t="n">
         <v>16</v>
@@ -4086,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
         <v>28</v>
       </c>
       <c r="F21" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.424</v>
+        <v>0.431</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,10 +4209,10 @@
         <v>38.6</v>
       </c>
       <c r="J21" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L21" t="n">
         <v>10.4</v>
@@ -4154,22 +4221,22 @@
         <v>28.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O21" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P21" t="n">
         <v>23.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
       <c r="R21" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T21" t="n">
         <v>42.4</v>
@@ -4190,31 +4257,31 @@
         <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="AC21" t="n">
         <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4232,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
@@ -4244,22 +4311,22 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>11</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4399,7 +4466,7 @@
         <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4417,10 +4484,10 @@
         <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4453,7 +4520,7 @@
         <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" t="n">
         <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>0.742</v>
+        <v>0.738</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,7 +4573,7 @@
         <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K23" t="n">
         <v>0.461</v>
@@ -4515,28 +4582,28 @@
         <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P23" t="n">
         <v>27.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.723</v>
+        <v>0.727</v>
       </c>
       <c r="R23" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
         <v>19.3</v>
@@ -4554,7 +4621,7 @@
         <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
         <v>22.5</v>
@@ -4563,22 +4630,22 @@
         <v>102.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
@@ -4620,10 +4687,10 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AX23" t="n">
         <v>7</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
         <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>0.516</v>
+        <v>0.508</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4691,49 +4758,49 @@
         <v>80.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L24" t="n">
         <v>4.1</v>
       </c>
       <c r="M24" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N24" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="O24" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P24" t="n">
         <v>26</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R24" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S24" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T24" t="n">
         <v>42.2</v>
       </c>
       <c r="U24" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V24" t="n">
         <v>14.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X24" t="n">
         <v>5.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
         <v>20.1</v>
@@ -4742,46 +4809,46 @@
         <v>21.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD24" t="n">
         <v>30</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
         <v>8</v>
@@ -4793,13 +4860,13 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT24" t="n">
         <v>10</v>
       </c>
       <c r="AU24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
@@ -4814,10 +4881,10 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -4852,43 +4919,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.537</v>
+        <v>0.53</v>
       </c>
       <c r="H25" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="J25" t="n">
-        <v>80.5</v>
+        <v>80.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.504</v>
+        <v>0.502</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
         <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O25" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P25" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="Q25" t="n">
         <v>0.755</v>
@@ -4903,10 +4970,10 @@
         <v>41.2</v>
       </c>
       <c r="U25" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V25" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
@@ -4918,22 +4985,22 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA25" t="n">
         <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>108.2</v>
+        <v>107.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
         <v>14</v>
@@ -4963,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
@@ -4978,34 +5045,34 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -5049,31 +5116,31 @@
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>78.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M26" t="n">
+        <v>19</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="O26" t="n">
         <v>18.8</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="O26" t="n">
-        <v>18.9</v>
-      </c>
       <c r="P26" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
@@ -5082,22 +5149,22 @@
         <v>28.2</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.5</v>
@@ -5106,13 +5173,13 @@
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5139,16 +5206,16 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>19</v>
@@ -5160,25 +5227,25 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="n">
         <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
-        <v>0.212</v>
+        <v>0.215</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,7 +5301,7 @@
         <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K27" t="n">
         <v>0.448</v>
@@ -5243,10 +5310,10 @@
         <v>6.9</v>
       </c>
       <c r="M27" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O27" t="n">
         <v>20.5</v>
@@ -5255,10 +5322,10 @@
         <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.802</v>
+        <v>0.801</v>
       </c>
       <c r="R27" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
         <v>28.9</v>
@@ -5270,16 +5337,16 @@
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W27" t="n">
         <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z27" t="n">
         <v>23.6</v>
@@ -5288,40 +5355,40 @@
         <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.6</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>12</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
         <v>15</v>
@@ -5336,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS27" t="n">
         <v>24</v>
@@ -5348,10 +5415,10 @@
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
@@ -5363,13 +5430,13 @@
         <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>19</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" t="n">
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>0.358</v>
+        <v>0.348</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,7 +5665,7 @@
         <v>36.6</v>
       </c>
       <c r="J29" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
         <v>0.457</v>
@@ -5607,28 +5674,28 @@
         <v>5.9</v>
       </c>
       <c r="M29" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N29" t="n">
         <v>0.375</v>
       </c>
       <c r="O29" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P29" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.826</v>
+        <v>0.827</v>
       </c>
       <c r="R29" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="U29" t="n">
         <v>21.8</v>
@@ -5637,13 +5704,13 @@
         <v>13.2</v>
       </c>
       <c r="W29" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X29" t="n">
         <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z29" t="n">
         <v>19.4</v>
@@ -5652,28 +5719,28 @@
         <v>20.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
         <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>18</v>
@@ -5685,16 +5752,16 @@
         <v>24</v>
       </c>
       <c r="AM29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,28 +5770,28 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA29" t="n">
         <v>22</v>
@@ -5733,7 +5800,7 @@
         <v>22</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="n">
         <v>41</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>0.612</v>
+        <v>0.621</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J30" t="n">
         <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M30" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>0.345</v>
+        <v>0.349</v>
       </c>
       <c r="O30" t="n">
         <v>21.6</v>
@@ -5813,13 +5880,13 @@
         <v>41.1</v>
       </c>
       <c r="U30" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>4.7</v>
@@ -5834,19 +5901,19 @@
         <v>23.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.2</v>
+        <v>103.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
         <v>10</v>
@@ -5861,7 +5928,7 @@
         <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5885,7 +5952,7 @@
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>18</v>
@@ -5894,16 +5961,16 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>24</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="n">
         <v>51</v>
       </c>
       <c r="G31" t="n">
-        <v>0.239</v>
+        <v>0.227</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.448</v>
@@ -5974,19 +6041,19 @@
         <v>14.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.331</v>
+        <v>0.328</v>
       </c>
       <c r="O31" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P31" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R31" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S31" t="n">
         <v>28</v>
@@ -6010,19 +6077,19 @@
         <v>5.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
         <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.4</v>
+        <v>-7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6040,10 +6107,10 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6061,7 +6128,7 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
@@ -6070,10 +6137,10 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6082,13 +6149,13 @@
         <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
         <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-15-2008-09</t>
+          <t>2009-03-15</t>
         </is>
       </c>
     </row>
